--- a/Code/Results/Cases/Case_5_246/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_246/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.666481343168471</v>
+        <v>1.118015681109569</v>
       </c>
       <c r="C2">
-        <v>0.4985867169198741</v>
+        <v>0.3082411197234762</v>
       </c>
       <c r="D2">
-        <v>0.05193035735017304</v>
+        <v>0.03355238475236177</v>
       </c>
       <c r="E2">
-        <v>0.04640529431567464</v>
+        <v>0.1233058829017886</v>
       </c>
       <c r="F2">
-        <v>0.5467869316382519</v>
+        <v>0.8231263785663572</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1493074072374228</v>
+        <v>0.1891530951565983</v>
       </c>
       <c r="M2">
-        <v>0.4366145817679978</v>
+        <v>0.2361424816765876</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.59580719263667</v>
+        <v>2.871797905458976</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.31688997022593</v>
+        <v>1.012251070564901</v>
       </c>
       <c r="C3">
-        <v>0.4585040455184242</v>
+        <v>0.294607476841918</v>
       </c>
       <c r="D3">
-        <v>0.04764330063009936</v>
+        <v>0.0320621126323104</v>
       </c>
       <c r="E3">
-        <v>0.04881743602868416</v>
+        <v>0.1247236308366461</v>
       </c>
       <c r="F3">
-        <v>0.5142922647792645</v>
+        <v>0.8238021451527047</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1353423124514705</v>
+        <v>0.1865257311867694</v>
       </c>
       <c r="M3">
-        <v>0.3800842211968316</v>
+        <v>0.2199033853709338</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.539901605421534</v>
+        <v>2.890035906224625</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.102806115446697</v>
+        <v>0.9473682001213888</v>
       </c>
       <c r="C4">
-        <v>0.4339263167353238</v>
+        <v>0.2862065952472221</v>
       </c>
       <c r="D4">
-        <v>0.04501202424314243</v>
+        <v>0.03114326073572471</v>
       </c>
       <c r="E4">
-        <v>0.05037549729237778</v>
+        <v>0.1256438214809056</v>
       </c>
       <c r="F4">
-        <v>0.4958101894638034</v>
+        <v>0.8248677082826816</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1269396682835051</v>
+        <v>0.1850045961093159</v>
       </c>
       <c r="M4">
-        <v>0.3455359921618353</v>
+        <v>0.2099848639771267</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.510505232469598</v>
+        <v>2.903466340057037</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.015670177869765</v>
+        <v>0.9209436966749536</v>
       </c>
       <c r="C5">
-        <v>0.4239158179185267</v>
+        <v>0.2827759353475585</v>
       </c>
       <c r="D5">
-        <v>0.04393969018914134</v>
+        <v>0.03076788752337478</v>
       </c>
       <c r="E5">
-        <v>0.05102948661979678</v>
+        <v>0.1260313135664708</v>
       </c>
       <c r="F5">
-        <v>0.4886259812921026</v>
+        <v>0.8254652868235297</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1235557009883479</v>
+        <v>0.1844079178928695</v>
       </c>
       <c r="M5">
-        <v>0.3314910590624578</v>
+        <v>0.2059563668816793</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.499696197379791</v>
+        <v>2.90949973733305</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.001206611860482</v>
+        <v>0.9165569249605028</v>
       </c>
       <c r="C6">
-        <v>0.4222538024178846</v>
+        <v>0.2822058475796325</v>
       </c>
       <c r="D6">
-        <v>0.04376161708606929</v>
+        <v>0.03070550148983386</v>
       </c>
       <c r="E6">
-        <v>0.051139224258127</v>
+        <v>0.1260964120892646</v>
       </c>
       <c r="F6">
-        <v>0.4874534033155697</v>
+        <v>0.8255743728934704</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1229961360557823</v>
+        <v>0.1843102422323639</v>
       </c>
       <c r="M6">
-        <v>0.3291607537727046</v>
+        <v>0.2052882526239301</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.497970083712659</v>
+        <v>2.910535397163414</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.101630592510162</v>
+        <v>0.9470117641444062</v>
       </c>
       <c r="C7">
-        <v>0.433791294971428</v>
+        <v>0.2861603571133458</v>
       </c>
       <c r="D7">
-        <v>0.04499756304485913</v>
+        <v>0.03113820206625206</v>
       </c>
       <c r="E7">
-        <v>0.0503842404002719</v>
+        <v>0.1256489966779102</v>
       </c>
       <c r="F7">
-        <v>0.4957119226516582</v>
+        <v>0.824875106367891</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1268938721654109</v>
+        <v>0.1849964551177052</v>
       </c>
       <c r="M7">
-        <v>0.3453464494265504</v>
+        <v>0.2099304797878929</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.510354808916219</v>
+        <v>2.903545440816259</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.54580117512495</v>
+        <v>1.081537041416539</v>
       </c>
       <c r="C8">
-        <v>0.4847572929658099</v>
+        <v>0.30354656535917</v>
       </c>
       <c r="D8">
-        <v>0.05045177326299921</v>
+        <v>0.03303934697024857</v>
       </c>
       <c r="E8">
-        <v>0.0472208391723985</v>
+        <v>0.1237844173813557</v>
       </c>
       <c r="F8">
-        <v>0.5352639773775181</v>
+        <v>0.823224186531661</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1444546436400387</v>
+        <v>0.1882280939914267</v>
       </c>
       <c r="M8">
-        <v>0.4170850627002238</v>
+        <v>0.2305325005614094</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.575464775108884</v>
+        <v>2.877622509305382</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.423175338013721</v>
+        <v>1.345743109301736</v>
       </c>
       <c r="C9">
-        <v>0.5851281128014136</v>
+        <v>0.3373952499985364</v>
       </c>
       <c r="D9">
-        <v>0.06117158615833063</v>
+        <v>0.03673620094447472</v>
       </c>
       <c r="E9">
-        <v>0.04164213526749905</v>
+        <v>0.1205216274595011</v>
       </c>
       <c r="F9">
-        <v>0.6255538646128116</v>
+        <v>0.8251620350377991</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1804048403162426</v>
+        <v>0.1952945804908595</v>
       </c>
       <c r="M9">
-        <v>0.5593869608952673</v>
+        <v>0.2713410357480726</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.745594612642009</v>
+        <v>2.84454345519012</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.074506243356154</v>
+        <v>1.54005357782296</v>
       </c>
       <c r="C10">
-        <v>0.6593852616825302</v>
+        <v>0.3621040387107257</v>
       </c>
       <c r="D10">
-        <v>0.06908768472472815</v>
+        <v>0.03943215737568551</v>
       </c>
       <c r="E10">
-        <v>0.03794428661155314</v>
+        <v>0.118363539648736</v>
       </c>
       <c r="F10">
-        <v>0.7012372336828605</v>
+        <v>0.8297602121856329</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2079641194723649</v>
+        <v>0.2009299290898809</v>
       </c>
       <c r="M10">
-        <v>0.6654437525394741</v>
+        <v>0.3015652178322767</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.901428681267845</v>
+        <v>2.831128854499298</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.372968492332745</v>
+        <v>1.628484986013461</v>
       </c>
       <c r="C11">
-        <v>0.6933414532410609</v>
+        <v>0.3733080582368871</v>
       </c>
       <c r="D11">
-        <v>0.07270403405990322</v>
+        <v>0.04065404735842293</v>
       </c>
       <c r="E11">
-        <v>0.03635380299195012</v>
+        <v>0.1174334934327754</v>
       </c>
       <c r="F11">
-        <v>0.7380794755767823</v>
+        <v>0.8325456133071754</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2208045870208082</v>
+        <v>0.2035897711505328</v>
       </c>
       <c r="M11">
-        <v>0.7141451805562866</v>
+        <v>0.3153663956591828</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.980214286902935</v>
+        <v>2.827404545917886</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.486362280432616</v>
+        <v>1.661976073157689</v>
       </c>
       <c r="C12">
-        <v>0.7062307489267994</v>
+        <v>0.3775453212945195</v>
       </c>
       <c r="D12">
-        <v>0.07407622099451316</v>
+        <v>0.04111607394082029</v>
       </c>
       <c r="E12">
-        <v>0.03576514388628971</v>
+        <v>0.1170887276307433</v>
       </c>
       <c r="F12">
-        <v>0.7524123287704043</v>
+        <v>0.8337004295918007</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2257154484434096</v>
+        <v>0.2046108018383705</v>
       </c>
       <c r="M12">
-        <v>0.7326639402541986</v>
+        <v>0.3205998604777349</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.011292386127991</v>
+        <v>2.826337285004115</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.461923303648405</v>
+        <v>1.654763012999069</v>
       </c>
       <c r="C13">
-        <v>0.7034533450043909</v>
+        <v>0.3766329976445206</v>
       </c>
       <c r="D13">
-        <v>0.07378056404994737</v>
+        <v>0.04101659877734676</v>
       </c>
       <c r="E13">
-        <v>0.03589130899203674</v>
+        <v>0.1171626491358688</v>
       </c>
       <c r="F13">
-        <v>0.7493079470179822</v>
+        <v>0.8334472649933815</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2246555709918994</v>
+        <v>0.2043902912208893</v>
       </c>
       <c r="M13">
-        <v>0.7286720016604207</v>
+        <v>0.319472420948351</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.004542028095699</v>
+        <v>2.826551863985912</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.382289633142193</v>
+        <v>1.631240245745119</v>
       </c>
       <c r="C14">
-        <v>0.6944012124468202</v>
+        <v>0.3736567712431622</v>
       </c>
       <c r="D14">
-        <v>0.072816866126999</v>
+        <v>0.04069207228076976</v>
       </c>
       <c r="E14">
-        <v>0.03630509802027804</v>
+        <v>0.1174049806346287</v>
       </c>
       <c r="F14">
-        <v>0.7392507951088447</v>
+        <v>0.8326386139872142</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2212076065817001</v>
+        <v>0.2036734954946837</v>
       </c>
       <c r="M14">
-        <v>0.7156671284724965</v>
+        <v>0.3157968117782346</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.982745523372159</v>
+        <v>2.827309860172477</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.333562128015899</v>
+        <v>1.616832351879282</v>
       </c>
       <c r="C15">
-        <v>0.6888607050723579</v>
+        <v>0.3718330284405624</v>
       </c>
       <c r="D15">
-        <v>0.07222694942689856</v>
+        <v>0.04049320150236468</v>
       </c>
       <c r="E15">
-        <v>0.03656034331988978</v>
+        <v>0.1175543820454366</v>
       </c>
       <c r="F15">
-        <v>0.7331412506235466</v>
+        <v>0.8321563295279617</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2191020880304393</v>
+        <v>0.2032362341904417</v>
       </c>
       <c r="M15">
-        <v>0.7077115860883652</v>
+        <v>0.3135463336099846</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.969559865940454</v>
+        <v>2.827818862790878</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.055049748982924</v>
+        <v>1.534275023904343</v>
       </c>
       <c r="C16">
-        <v>0.6571701483176753</v>
+        <v>0.3613710802920878</v>
       </c>
       <c r="D16">
-        <v>0.06885170160438037</v>
+        <v>0.03935221079691331</v>
       </c>
       <c r="E16">
-        <v>0.03805011019848081</v>
+        <v>0.1184253595077372</v>
       </c>
       <c r="F16">
-        <v>0.6988809538826644</v>
+        <v>0.8295921634483108</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2071314754758049</v>
+        <v>0.2007580363465706</v>
       </c>
       <c r="M16">
-        <v>0.6622710934663303</v>
+        <v>0.3006643063454817</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.89644780011659</v>
+        <v>2.831420192909547</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.884788487650439</v>
+        <v>1.483637578444302</v>
       </c>
       <c r="C17">
-        <v>0.6377779026166763</v>
+        <v>0.3549435734134079</v>
       </c>
       <c r="D17">
-        <v>0.06678538880058227</v>
+        <v>0.0386510740994126</v>
       </c>
       <c r="E17">
-        <v>0.03898781948452901</v>
+        <v>0.1189729058225016</v>
       </c>
       <c r="F17">
-        <v>0.6785051773029807</v>
+        <v>0.8281970072590354</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.199868948416281</v>
+        <v>0.1992623763262884</v>
       </c>
       <c r="M17">
-        <v>0.6345191130014953</v>
+        <v>0.2927747686860229</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.853692574284139</v>
+        <v>2.834239348906266</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.787058893244478</v>
+        <v>1.454515982280725</v>
       </c>
       <c r="C18">
-        <v>0.6266402278097019</v>
+        <v>0.3512432558491128</v>
       </c>
       <c r="D18">
-        <v>0.06559830175556414</v>
+        <v>0.03824737554740665</v>
       </c>
       <c r="E18">
-        <v>0.03953576708401618</v>
+        <v>0.1192927047498882</v>
       </c>
       <c r="F18">
-        <v>0.6670105214478923</v>
+        <v>0.8274598239411546</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1957200034404991</v>
+        <v>0.1984111782784197</v>
       </c>
       <c r="M18">
-        <v>0.6185990815719791</v>
+        <v>0.288241827455046</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.829837119414435</v>
+        <v>2.836084622194505</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.754001943983212</v>
+        <v>1.444656596184188</v>
       </c>
       <c r="C19">
-        <v>0.6228718313857371</v>
+        <v>0.349989818402662</v>
       </c>
       <c r="D19">
-        <v>0.06519659906352615</v>
+        <v>0.03811061830132445</v>
       </c>
       <c r="E19">
-        <v>0.03972275726015839</v>
+        <v>0.1194018189714446</v>
       </c>
       <c r="F19">
-        <v>0.6631562590647917</v>
+        <v>0.8272214280706862</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1943199571413459</v>
+        <v>0.1981245355897698</v>
       </c>
       <c r="M19">
-        <v>0.6132157536607821</v>
+        <v>0.2867079020250998</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.82188336039772</v>
+        <v>2.836747799292993</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.902891947776993</v>
+        <v>1.489027646677755</v>
       </c>
       <c r="C20">
-        <v>0.6398405222019505</v>
+        <v>0.3556281447870617</v>
       </c>
       <c r="D20">
-        <v>0.06700520241749075</v>
+        <v>0.03872575530484568</v>
       </c>
       <c r="E20">
-        <v>0.03888710537464612</v>
+        <v>0.1189141151614541</v>
       </c>
       <c r="F20">
-        <v>0.6806506910827324</v>
+        <v>0.8283387662841335</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2006390976113721</v>
+        <v>0.1994206538836778</v>
       </c>
       <c r="M20">
-        <v>0.6374689166711534</v>
+        <v>0.2936141166912734</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.858166988472789</v>
+        <v>2.833916077721398</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.405669349689106</v>
+        <v>1.638149355286259</v>
       </c>
       <c r="C21">
-        <v>0.6970591605236223</v>
+        <v>0.374531111213031</v>
       </c>
       <c r="D21">
-        <v>0.07309984811597303</v>
+        <v>0.04078741216054738</v>
       </c>
       <c r="E21">
-        <v>0.03618318479929461</v>
+        <v>0.1173336006240877</v>
       </c>
       <c r="F21">
-        <v>0.7421941824327831</v>
+        <v>0.8328734168321859</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2222190021045236</v>
+        <v>0.2038836614006243</v>
       </c>
       <c r="M21">
-        <v>0.7194848036454786</v>
+        <v>0.3168762320905287</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.98911302444273</v>
+        <v>2.827077899255357</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.736467344841515</v>
+        <v>1.735631820369235</v>
       </c>
       <c r="C22">
-        <v>0.7346374177160442</v>
+        <v>0.3868533724961196</v>
       </c>
       <c r="D22">
-        <v>0.07709940186140329</v>
+        <v>0.04213086761837559</v>
       </c>
       <c r="E22">
-        <v>0.0344956443857467</v>
+        <v>0.1163439030910345</v>
       </c>
       <c r="F22">
-        <v>0.7846580974727573</v>
+        <v>0.8364203502453336</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2366076614006687</v>
+        <v>0.2068809493718931</v>
       </c>
       <c r="M22">
-        <v>0.7735391486912917</v>
+        <v>0.3321215728849651</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.081999867531408</v>
+        <v>2.824608838518515</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.559691110277527</v>
+        <v>1.683602005027183</v>
       </c>
       <c r="C23">
-        <v>0.7145625464564205</v>
+        <v>0.3802797555389645</v>
       </c>
       <c r="D23">
-        <v>0.07496307018421788</v>
+        <v>0.04141421117680011</v>
       </c>
       <c r="E23">
-        <v>0.03538887773163013</v>
+        <v>0.1168681678770399</v>
       </c>
       <c r="F23">
-        <v>0.7617770734980951</v>
+        <v>0.8344738176604096</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2289004031549666</v>
+        <v>0.2052738921474742</v>
       </c>
       <c r="M23">
-        <v>0.7446440461594364</v>
+        <v>0.3239810600089186</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.031717771144827</v>
+        <v>2.82574325534469</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.894706892476222</v>
+        <v>1.486590826166776</v>
       </c>
       <c r="C24">
-        <v>0.6389079774546644</v>
+        <v>0.3553186658066068</v>
       </c>
       <c r="D24">
-        <v>0.06690582203243878</v>
+        <v>0.03869199381626487</v>
       </c>
       <c r="E24">
-        <v>0.03893261070307397</v>
+        <v>0.118940678821307</v>
       </c>
       <c r="F24">
-        <v>0.6796800227140665</v>
+        <v>0.8282744748572952</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2002908313546925</v>
+        <v>0.1993490695702462</v>
       </c>
       <c r="M24">
-        <v>0.6361352023899656</v>
+        <v>0.2932346385362763</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.856141855392423</v>
+        <v>2.834061529383831</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.184861172819978</v>
+        <v>1.274230211854615</v>
       </c>
       <c r="C25">
-        <v>0.5579045174718829</v>
+        <v>0.328265636503005</v>
       </c>
       <c r="D25">
-        <v>0.05826651520361992</v>
+        <v>0.03573956315217686</v>
       </c>
       <c r="E25">
-        <v>0.04308245480220219</v>
+        <v>0.121362248907576</v>
       </c>
       <c r="F25">
-        <v>0.5996082842220716</v>
+        <v>0.8240817282579798</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1704951743927552</v>
+        <v>0.1933049387019565</v>
       </c>
       <c r="M25">
-        <v>0.5206656882438168</v>
+        <v>0.2602582533825242</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.694534910847011</v>
+        <v>2.851584689225348</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_246/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_246/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.118015681109569</v>
+        <v>2.666481343168584</v>
       </c>
       <c r="C2">
-        <v>0.3082411197234762</v>
+        <v>0.4985867169199594</v>
       </c>
       <c r="D2">
-        <v>0.03355238475236177</v>
+        <v>0.05193035735016593</v>
       </c>
       <c r="E2">
-        <v>0.1233058829017886</v>
+        <v>0.04640529431569762</v>
       </c>
       <c r="F2">
-        <v>0.8231263785663572</v>
+        <v>0.5467869316382803</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1891530951565983</v>
+        <v>0.149307407237437</v>
       </c>
       <c r="M2">
-        <v>0.2361424816765876</v>
+        <v>0.4366145817679907</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.871797905458976</v>
+        <v>1.595807192636755</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.012251070564901</v>
+        <v>2.316889970225986</v>
       </c>
       <c r="C3">
-        <v>0.294607476841918</v>
+        <v>0.4585040455185663</v>
       </c>
       <c r="D3">
-        <v>0.0320621126323104</v>
+        <v>0.04764330062999989</v>
       </c>
       <c r="E3">
-        <v>0.1247236308366461</v>
+        <v>0.04881743602870203</v>
       </c>
       <c r="F3">
-        <v>0.8238021451527047</v>
+        <v>0.5142922647792645</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1865257311867694</v>
+        <v>0.1353423124514137</v>
       </c>
       <c r="M3">
-        <v>0.2199033853709338</v>
+        <v>0.3800842211968174</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.890035906224625</v>
+        <v>1.539901605421534</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9473682001213888</v>
+        <v>2.102806115446754</v>
       </c>
       <c r="C4">
-        <v>0.2862065952472221</v>
+        <v>0.433926316735608</v>
       </c>
       <c r="D4">
-        <v>0.03114326073572471</v>
+        <v>0.0450120242428298</v>
       </c>
       <c r="E4">
-        <v>0.1256438214809056</v>
+        <v>0.05037549729238233</v>
       </c>
       <c r="F4">
-        <v>0.8248677082826816</v>
+        <v>0.4958101894637892</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1850045961093159</v>
+        <v>0.1269396682835904</v>
       </c>
       <c r="M4">
-        <v>0.2099848639771267</v>
+        <v>0.3455359921618424</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.903466340057037</v>
+        <v>1.510505232469541</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9209436966749536</v>
+        <v>2.015670177869708</v>
       </c>
       <c r="C5">
-        <v>0.2827759353475585</v>
+        <v>0.4239158179188678</v>
       </c>
       <c r="D5">
-        <v>0.03076788752337478</v>
+        <v>0.04393969018913424</v>
       </c>
       <c r="E5">
-        <v>0.1260313135664708</v>
+        <v>0.05102948661982465</v>
       </c>
       <c r="F5">
-        <v>0.8254652868235297</v>
+        <v>0.4886259812920954</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1844079178928695</v>
+        <v>0.1235557009883053</v>
       </c>
       <c r="M5">
-        <v>0.2059563668816793</v>
+        <v>0.3314910590624649</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.90949973733305</v>
+        <v>1.499696197379706</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9165569249605028</v>
+        <v>2.001206611860425</v>
       </c>
       <c r="C6">
-        <v>0.2822058475796325</v>
+        <v>0.4222538024176004</v>
       </c>
       <c r="D6">
-        <v>0.03070550148983386</v>
+        <v>0.0437616170859414</v>
       </c>
       <c r="E6">
-        <v>0.1260964120892646</v>
+        <v>0.0511392242581088</v>
       </c>
       <c r="F6">
-        <v>0.8255743728934704</v>
+        <v>0.4874534033155697</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1843102422323639</v>
+        <v>0.1229961360557397</v>
       </c>
       <c r="M6">
-        <v>0.2052882526239301</v>
+        <v>0.3291607537727046</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.910535397163414</v>
+        <v>1.497970083712659</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9470117641444062</v>
+        <v>2.101630592510219</v>
       </c>
       <c r="C7">
-        <v>0.2861603571133458</v>
+        <v>0.433791294971428</v>
       </c>
       <c r="D7">
-        <v>0.03113820206625206</v>
+        <v>0.04499756304508651</v>
       </c>
       <c r="E7">
-        <v>0.1256489966779102</v>
+        <v>0.05038424040025991</v>
       </c>
       <c r="F7">
-        <v>0.824875106367891</v>
+        <v>0.4957119226516795</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1849964551177052</v>
+        <v>0.1268938721654536</v>
       </c>
       <c r="M7">
-        <v>0.2099304797878929</v>
+        <v>0.3453464494265646</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.903545440816259</v>
+        <v>1.510354808916361</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.081537041416539</v>
+        <v>2.545801175125007</v>
       </c>
       <c r="C8">
-        <v>0.30354656535917</v>
+        <v>0.4847572929658668</v>
       </c>
       <c r="D8">
-        <v>0.03303934697024857</v>
+        <v>0.05045177326299921</v>
       </c>
       <c r="E8">
-        <v>0.1237844173813557</v>
+        <v>0.04722083917242426</v>
       </c>
       <c r="F8">
-        <v>0.823224186531661</v>
+        <v>0.5352639773774825</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1882280939914267</v>
+        <v>0.1444546436400245</v>
       </c>
       <c r="M8">
-        <v>0.2305325005614094</v>
+        <v>0.4170850627002309</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.877622509305382</v>
+        <v>1.575464775108856</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.345743109301736</v>
+        <v>3.423175338013777</v>
       </c>
       <c r="C9">
-        <v>0.3373952499985364</v>
+        <v>0.5851281128009873</v>
       </c>
       <c r="D9">
-        <v>0.03673620094447472</v>
+        <v>0.06117158615849405</v>
       </c>
       <c r="E9">
-        <v>0.1205216274595011</v>
+        <v>0.04164213526749716</v>
       </c>
       <c r="F9">
-        <v>0.8251620350377991</v>
+        <v>0.6255538646128329</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1952945804908595</v>
+        <v>0.1804048403161786</v>
       </c>
       <c r="M9">
-        <v>0.2713410357480726</v>
+        <v>0.5593869608952673</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.84454345519012</v>
+        <v>1.745594612642009</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.54005357782296</v>
+        <v>4.074506243356041</v>
       </c>
       <c r="C10">
-        <v>0.3621040387107257</v>
+        <v>0.6593852616823312</v>
       </c>
       <c r="D10">
-        <v>0.03943215737568551</v>
+        <v>0.06908768472471394</v>
       </c>
       <c r="E10">
-        <v>0.118363539648736</v>
+        <v>0.0379442866115467</v>
       </c>
       <c r="F10">
-        <v>0.8297602121856329</v>
+        <v>0.7012372336828605</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2009299290898809</v>
+        <v>0.2079641194723791</v>
       </c>
       <c r="M10">
-        <v>0.3015652178322767</v>
+        <v>0.665443752539467</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.831128854499298</v>
+        <v>1.901428681267902</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.628484986013461</v>
+        <v>4.372968492332745</v>
       </c>
       <c r="C11">
-        <v>0.3733080582368871</v>
+        <v>0.6933414532408335</v>
       </c>
       <c r="D11">
-        <v>0.04065404735842293</v>
+        <v>0.07270403406012349</v>
       </c>
       <c r="E11">
-        <v>0.1174334934327754</v>
+        <v>0.03635380299193636</v>
       </c>
       <c r="F11">
-        <v>0.8325456133071754</v>
+        <v>0.7380794755767681</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2035897711505328</v>
+        <v>0.220804587020865</v>
       </c>
       <c r="M11">
-        <v>0.3153663956591828</v>
+        <v>0.7141451805562866</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.827404545917886</v>
+        <v>1.980214286902935</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.661976073157689</v>
+        <v>4.486362280432559</v>
       </c>
       <c r="C12">
-        <v>0.3775453212945195</v>
+        <v>0.7062307489268562</v>
       </c>
       <c r="D12">
-        <v>0.04111607394082029</v>
+        <v>0.07407622099451316</v>
       </c>
       <c r="E12">
-        <v>0.1170887276307433</v>
+        <v>0.03576514388630181</v>
       </c>
       <c r="F12">
-        <v>0.8337004295918007</v>
+        <v>0.7524123287704043</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2046108018383705</v>
+        <v>0.2257154484433812</v>
       </c>
       <c r="M12">
-        <v>0.3205998604777349</v>
+        <v>0.7326639402542128</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.826337285004115</v>
+        <v>2.011292386127991</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.654763012999069</v>
+        <v>4.461923303648462</v>
       </c>
       <c r="C13">
-        <v>0.3766329976445206</v>
+        <v>0.7034533450039646</v>
       </c>
       <c r="D13">
-        <v>0.04101659877734676</v>
+        <v>0.07378056404983369</v>
       </c>
       <c r="E13">
-        <v>0.1171626491358688</v>
+        <v>0.03589130899202464</v>
       </c>
       <c r="F13">
-        <v>0.8334472649933815</v>
+        <v>0.749307947017968</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2043902912208893</v>
+        <v>0.2246555709918994</v>
       </c>
       <c r="M13">
-        <v>0.319472420948351</v>
+        <v>0.7286720016604278</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.826551863985912</v>
+        <v>2.004542028095841</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.631240245745119</v>
+        <v>4.382289633142307</v>
       </c>
       <c r="C14">
-        <v>0.3736567712431622</v>
+        <v>0.6944012124468486</v>
       </c>
       <c r="D14">
-        <v>0.04069207228076976</v>
+        <v>0.07281686612700611</v>
       </c>
       <c r="E14">
-        <v>0.1174049806346287</v>
+        <v>0.03630509802027937</v>
       </c>
       <c r="F14">
-        <v>0.8326386139872142</v>
+        <v>0.7392507951088305</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2036734954946837</v>
+        <v>0.2212076065818422</v>
       </c>
       <c r="M14">
-        <v>0.3157968117782346</v>
+        <v>0.7156671284724894</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.827309860172477</v>
+        <v>1.982745523372273</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.616832351879282</v>
+        <v>4.333562128015899</v>
       </c>
       <c r="C15">
-        <v>0.3718330284405624</v>
+        <v>0.6888607050725852</v>
       </c>
       <c r="D15">
-        <v>0.04049320150236468</v>
+        <v>0.0722269494270833</v>
       </c>
       <c r="E15">
-        <v>0.1175543820454366</v>
+        <v>0.03656034331990388</v>
       </c>
       <c r="F15">
-        <v>0.8321563295279617</v>
+        <v>0.7331412506235466</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2032362341904417</v>
+        <v>0.2191020880304677</v>
       </c>
       <c r="M15">
-        <v>0.3135463336099846</v>
+        <v>0.7077115860883652</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.827818862790878</v>
+        <v>1.969559865940454</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.534275023904343</v>
+        <v>4.055049748982981</v>
       </c>
       <c r="C16">
-        <v>0.3613710802920878</v>
+        <v>0.6571701483172205</v>
       </c>
       <c r="D16">
-        <v>0.03935221079691331</v>
+        <v>0.0688517016045509</v>
       </c>
       <c r="E16">
-        <v>0.1184253595077372</v>
+        <v>0.03805011019849347</v>
       </c>
       <c r="F16">
-        <v>0.8295921634483108</v>
+        <v>0.6988809538826644</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2007580363465706</v>
+        <v>0.2071314754756202</v>
       </c>
       <c r="M16">
-        <v>0.3006643063454817</v>
+        <v>0.6622710934663232</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.831420192909547</v>
+        <v>1.896447800116647</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.483637578444302</v>
+        <v>3.884788487650326</v>
       </c>
       <c r="C17">
-        <v>0.3549435734134079</v>
+        <v>0.6377779026165058</v>
       </c>
       <c r="D17">
-        <v>0.0386510740994126</v>
+        <v>0.06678538880047569</v>
       </c>
       <c r="E17">
-        <v>0.1189729058225016</v>
+        <v>0.03898781948452801</v>
       </c>
       <c r="F17">
-        <v>0.8281970072590354</v>
+        <v>0.6785051773029807</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1992623763262884</v>
+        <v>0.1998689484162668</v>
       </c>
       <c r="M17">
-        <v>0.2927747686860229</v>
+        <v>0.6345191130014953</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.834239348906266</v>
+        <v>1.853692574284139</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.454515982280725</v>
+        <v>3.787058893244421</v>
       </c>
       <c r="C18">
-        <v>0.3512432558491128</v>
+        <v>0.6266402278096166</v>
       </c>
       <c r="D18">
-        <v>0.03824737554740665</v>
+        <v>0.06559830175554282</v>
       </c>
       <c r="E18">
-        <v>0.1192927047498882</v>
+        <v>0.03953576708401396</v>
       </c>
       <c r="F18">
-        <v>0.8274598239411546</v>
+        <v>0.6670105214478923</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1984111782784197</v>
+        <v>0.1957200034403854</v>
       </c>
       <c r="M18">
-        <v>0.288241827455046</v>
+        <v>0.6185990815719649</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.836084622194505</v>
+        <v>1.829837119414435</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.444656596184188</v>
+        <v>3.754001943983212</v>
       </c>
       <c r="C19">
-        <v>0.349989818402662</v>
+        <v>0.6228718313861066</v>
       </c>
       <c r="D19">
-        <v>0.03811061830132445</v>
+        <v>0.06519659906362563</v>
       </c>
       <c r="E19">
-        <v>0.1194018189714446</v>
+        <v>0.0397227572601565</v>
       </c>
       <c r="F19">
-        <v>0.8272214280706862</v>
+        <v>0.6631562590648059</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1981245355897698</v>
+        <v>0.1943199571411895</v>
       </c>
       <c r="M19">
-        <v>0.2867079020250998</v>
+        <v>0.613215753660775</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.836747799292993</v>
+        <v>1.821883360397692</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.489027646677755</v>
+        <v>3.902891947776936</v>
       </c>
       <c r="C20">
-        <v>0.3556281447870617</v>
+        <v>0.63984052220178</v>
       </c>
       <c r="D20">
-        <v>0.03872575530484568</v>
+        <v>0.06700520241744101</v>
       </c>
       <c r="E20">
-        <v>0.1189141151614541</v>
+        <v>0.03888710537464291</v>
       </c>
       <c r="F20">
-        <v>0.8283387662841335</v>
+        <v>0.6806506910827181</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1994206538836778</v>
+        <v>0.2006390976112868</v>
       </c>
       <c r="M20">
-        <v>0.2936141166912734</v>
+        <v>0.6374689166711462</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.833916077721398</v>
+        <v>1.858166988472789</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.638149355286259</v>
+        <v>4.405669349689049</v>
       </c>
       <c r="C21">
-        <v>0.374531111213031</v>
+        <v>0.6970591605233949</v>
       </c>
       <c r="D21">
-        <v>0.04078741216054738</v>
+        <v>0.0730998481157954</v>
       </c>
       <c r="E21">
-        <v>0.1173336006240877</v>
+        <v>0.03618318479929006</v>
       </c>
       <c r="F21">
-        <v>0.8328734168321859</v>
+        <v>0.7421941824327973</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2038836614006243</v>
+        <v>0.2222190021044668</v>
       </c>
       <c r="M21">
-        <v>0.3168762320905287</v>
+        <v>0.7194848036454928</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.827077899255357</v>
+        <v>1.98911302444273</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.735631820369235</v>
+        <v>4.736467344841287</v>
       </c>
       <c r="C22">
-        <v>0.3868533724961196</v>
+        <v>0.7346374177158168</v>
       </c>
       <c r="D22">
-        <v>0.04213086761837559</v>
+        <v>0.07709940186123987</v>
       </c>
       <c r="E22">
-        <v>0.1163439030910345</v>
+        <v>0.03449564438573338</v>
       </c>
       <c r="F22">
-        <v>0.8364203502453336</v>
+        <v>0.7846580974727573</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2068809493718931</v>
+        <v>0.2366076614005266</v>
       </c>
       <c r="M22">
-        <v>0.3321215728849651</v>
+        <v>0.7735391486912704</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.824608838518515</v>
+        <v>2.081999867531437</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.683602005027183</v>
+        <v>4.559691110277527</v>
       </c>
       <c r="C23">
-        <v>0.3802797555389645</v>
+        <v>0.7145625464564489</v>
       </c>
       <c r="D23">
-        <v>0.04141421117680011</v>
+        <v>0.07496307018433868</v>
       </c>
       <c r="E23">
-        <v>0.1168681678770399</v>
+        <v>0.03538887773161736</v>
       </c>
       <c r="F23">
-        <v>0.8344738176604096</v>
+        <v>0.7617770734980951</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2052738921474742</v>
+        <v>0.228900403154924</v>
       </c>
       <c r="M23">
-        <v>0.3239810600089186</v>
+        <v>0.7446440461594293</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.82574325534469</v>
+        <v>2.03171777114477</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.486590826166776</v>
+        <v>3.894706892476506</v>
       </c>
       <c r="C24">
-        <v>0.3553186658066068</v>
+        <v>0.6389079774551476</v>
       </c>
       <c r="D24">
-        <v>0.03869199381626487</v>
+        <v>0.06690582203250983</v>
       </c>
       <c r="E24">
-        <v>0.118940678821307</v>
+        <v>0.0389326107030632</v>
       </c>
       <c r="F24">
-        <v>0.8282744748572952</v>
+        <v>0.6796800227140665</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1993490695702462</v>
+        <v>0.2002908313547778</v>
       </c>
       <c r="M24">
-        <v>0.2932346385362763</v>
+        <v>0.6361352023899656</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.834061529383831</v>
+        <v>1.856141855392394</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.274230211854615</v>
+        <v>3.184861172820092</v>
       </c>
       <c r="C25">
-        <v>0.328265636503005</v>
+        <v>0.5579045174722808</v>
       </c>
       <c r="D25">
-        <v>0.03573956315217686</v>
+        <v>0.05826651520379755</v>
       </c>
       <c r="E25">
-        <v>0.121362248907576</v>
+        <v>0.04308245480217432</v>
       </c>
       <c r="F25">
-        <v>0.8240817282579798</v>
+        <v>0.5996082842220645</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1933049387019565</v>
+        <v>0.1704951743926273</v>
       </c>
       <c r="M25">
-        <v>0.2602582533825242</v>
+        <v>0.5206656882438168</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.851584689225348</v>
+        <v>1.694534910847011</v>
       </c>
     </row>
   </sheetData>
